--- a/notebooks/Schema/Baseline/Evaluation/F1_scores_matching.xlsx
+++ b/notebooks/Schema/Baseline/Evaluation/F1_scores_matching.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,9 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,15 +46,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,67 +70,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -145,10 +106,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -186,71 +147,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -274,53 +233,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -330,7 +290,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -339,7 +299,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -348,7 +308,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -356,10 +316,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -388,7 +348,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -401,12 +361,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -424,4059 +385,4047 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.005" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>0.967741935483871</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2">
         <v>0.967741935483871</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2">
         <v>0.967741935483871</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2">
         <v>0.967741935483871</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>0.75</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>0.25</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>0.25</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>0.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>0.9390243902439024</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>0.9512195121951219</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>0.9573170731707317</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>0.9512195121951219</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>0.9280575539568345</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>0.9568345323741008</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>0.9568345323741008</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>0.9496402877697842</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>0.4727272727272727</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>0.6363636363636364</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>0.5909090909090909</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>0.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>0.7088948787061995</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>0.9164420485175202</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>0.9056603773584906</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>0.894878706199461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>0.3387096774193548</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>0.1774193548387097</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>0.2419354838709677</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>0.2096774193548387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>0.1428571428571428</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>0.2857142857142857</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>0.3166666666666667</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.03333333333333333</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>0.2666666666666667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>0.4000000000000001</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>0.68</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>0.8399999999999999</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>0.8399999999999999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>0.8333333333333334</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>0.9583333333333334</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>0.9583333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2">
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>0.3559322033898305</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>0.4406779661016949</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13">
         <v>0.4576271186440678</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>0.423728813559322</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2">
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>0.4000000000000001</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>0.6</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14">
         <v>0.5333333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2">
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>0.1538461538461539</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>0.2307692307692308</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>0.4634146341463415</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16">
         <v>0.3902439024390244</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16">
         <v>0.3658536585365854</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>0.2682926829268293</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="2">
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>0.4311926605504588</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17">
         <v>0.4403669724770642</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17">
         <v>0.4770642201834863</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17">
         <v>0.4770642201834863</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2">
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>0.9284497444633731</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18">
         <v>0.969335604770017</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18">
         <v>0.9704713231118682</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18">
         <v>0.9716070414537195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="2">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>0.8148148148148148</v>
       </c>
-      <c r="D19" s="5">
-        <v>0.744107744107744</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19">
+        <v>0.7441077441077441</v>
+      </c>
+      <c r="E19">
         <v>0.7542087542087542</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <v>0.7912457912457911</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="2">
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>0.2608695652173913</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>0.1739130434782609</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21">
         <v>0.2173913043478261</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>0.2173913043478261</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="2">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>0.6404494382022472</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22">
         <v>0.0449438202247191</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22">
         <v>0.03370786516853932</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22">
         <v>0.03370786516853932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>0.1666666666666667</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>0.375</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23">
         <v>0.4166666666666667</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23">
         <v>0.4583333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="2">
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>0.5416666666666666</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24">
         <v>0.7916666666666666</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24">
         <v>0.7083333333333334</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24">
         <v>0.7083333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="2">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>0.75</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25">
         <v>0.7857142857142857</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25">
         <v>0.7857142857142857</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25">
         <v>0.8214285714285714</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="2">
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26">
         <v>0.6101694915254238</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26">
         <v>0.7966101694915254</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26">
         <v>0.7627118644067796</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26">
         <v>0.7627118644067796</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="2">
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>0.3769889840881273</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27">
         <v>0.631578947368421</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27">
         <v>0.3586291309669523</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27">
         <v>0.5116279069767442</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="2">
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28">
         <v>0.1</v>
       </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="2">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>0.4483870967741935</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29">
         <v>0.6903225806451613</v>
       </c>
-      <c r="E29" s="5">
-        <v>0.646774193548387</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="E29">
+        <v>0.6467741935483871</v>
+      </c>
+      <c r="F29">
         <v>0.6645161290322581</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="2">
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30">
         <v>0.9642857142857143</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30">
         <v>0.9642857142857143</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30">
         <v>0.9642857142857143</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30">
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="2">
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31">
         <v>0.972972972972973</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31">
         <v>0.972972972972973</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31">
         <v>0.972972972972973</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31">
         <v>0.972972972972973</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="2">
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32">
         <v>0.9637096774193549</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32">
         <v>0.9637096774193549</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32">
         <v>0.9838709677419355</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32">
         <v>0.9798387096774194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
-      <c r="A33" s="2">
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>31</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33">
         <v>0.5714285714285714</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33">
         <v>0.8571428571428571</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33">
         <v>0.8571428571428571</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
-      <c r="A34" s="2">
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>32</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34">
         <v>0.5833333333333334</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34">
         <v>0.6666666666666666</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34">
         <v>0.5833333333333334</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
-      <c r="A35" s="2">
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>33</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35">
         <v>0.896551724137931</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35">
         <v>0.9655172413793104</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35">
         <v>0.896551724137931</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35">
         <v>0.9310344827586207</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
-      <c r="A36" s="2">
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>34</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36">
         <v>0.7193831267009375</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36">
         <v>0.8412458421530088</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36">
         <v>0.8379195645600243</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36">
         <v>0.8309646205019655</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
-      <c r="A37" s="2">
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>35</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37">
         <v>0.6363636363636364</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37">
         <v>0.8484848484848486</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37">
         <v>0.7878787878787878</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37">
         <v>0.8484848484848486</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
-      <c r="A38" s="2">
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>36</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38">
         <v>0.3571428571428572</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38">
         <v>0.3571428571428572</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38">
         <v>0.3571428571428572</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38">
         <v>0.4285714285714285</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="2">
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>37</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39">
         <v>0.716796875</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39">
         <v>0.849609375</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39">
         <v>0.8427734375</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39">
         <v>0.8349609375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
-      <c r="A40" s="2">
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>38</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40">
         <v>0.7683257918552037</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40">
         <v>0.8497737556561086</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40">
         <v>0.857918552036199</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40">
         <v>0.8633484162895928</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
-      <c r="A41" s="2">
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>39</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41">
         <v>0.6190476190476191</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41">
         <v>0.9047619047619048</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41">
         <v>0.9523809523809523</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41">
         <v>0.9047619047619048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
-      <c r="A42" s="2">
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>40</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42">
         <v>0.9420935412026726</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42">
         <v>0.9599109131403119</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42">
         <v>0.9621380846325167</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42">
         <v>0.9599109131403119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
-      <c r="A43" s="2">
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>41</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43">
         <v>0.6428571428571429</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43">
         <v>0.6785714285714286</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43">
         <v>0.6785714285714286</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43">
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
-      <c r="A44" s="2">
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>42</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44">
         <v>0.3142857142857143</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44">
         <v>0.6285714285714286</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44">
         <v>0.2857142857142857</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
-      <c r="A45" s="2">
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>43</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45">
         <v>0.9818181818181818</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45">
         <v>0.9818181818181818</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45">
         <v>0.9818181818181818</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45">
         <v>0.9818181818181818</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
-      <c r="A46" s="2">
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>44</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46">
         <v>0.9375</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46">
         <v>0.9375</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46">
         <v>0.9375</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46">
         <v>0.9375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
-      <c r="A47" s="2">
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>45</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47">
         <v>0.92</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47">
         <v>0.96</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47">
         <v>0.96</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
-      <c r="A48" s="2">
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>46</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48">
         <v>0.7546125461254612</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48">
         <v>0.7693726937269372</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48">
         <v>0.7583025830258303</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48">
         <v>0.7472324723247232</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
-      <c r="A49" s="2">
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>47</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49">
         <v>0.1666666666666667</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49">
         <v>0.1666666666666667</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
-      <c r="A50" s="2">
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>48</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="5">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
         <v>0.4615384615384616</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50">
         <v>0.4615384615384616</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
-      <c r="A51" s="2">
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>49</v>
       </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
-      <c r="A52" s="2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>50</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52">
         <v>0.4903846153846154</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52">
         <v>0.2403846153846154</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52">
         <v>0.3365384615384616</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52">
         <v>0.1923076923076923</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
-      <c r="A53" s="2">
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>51</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53">
         <v>0.5</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53">
         <v>0.5</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53">
         <v>0.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
-      <c r="A54" s="2">
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>52</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54">
         <v>0.5123456790123457</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54">
         <v>0.6617283950617284</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54">
         <v>0.4493827160493827</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54">
         <v>0.5049382716049383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
-      <c r="A55" s="2">
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>53</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55">
         <v>0.05000000000000001</v>
       </c>
-      <c r="D55" s="4">
-        <v>0</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
-      <c r="A56" s="2">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>54</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56">
         <v>0.5434782608695652</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56">
         <v>0.4565217391304348</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56">
         <v>0.5</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56">
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
-      <c r="A57" s="2">
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57">
         <v>55</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57">
         <v>0.4051841746248295</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57">
         <v>0.3137789904502046</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57">
         <v>0.5511596180081856</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57">
         <v>0.5061391541609823</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
-      <c r="A58" s="2">
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>56</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58">
         <v>0.5217391304347826</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58">
         <v>0.5652173913043478</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58">
         <v>0.6086956521739131</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58">
         <v>0.6086956521739131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
-      <c r="A59" s="2">
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59">
         <v>57</v>
       </c>
-      <c r="C59" s="4">
-        <v>0</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0</v>
-      </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
-      <c r="A60" s="2">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>58</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60">
         <v>0.6842105263157895</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60">
         <v>0.6654135338345865</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60">
         <v>0.674812030075188</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60">
         <v>0.693609022556391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
-      <c r="A61" s="2">
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61">
         <v>59</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61">
         <v>0.9171597633136095</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61">
         <v>0.9289940828402367</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61">
         <v>0.9112426035502958</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61">
         <v>0.9112426035502958</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
-      <c r="A62" s="2">
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>60</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62">
         <v>0.4767441860465116</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62">
         <v>0.2906976744186047</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62">
         <v>0.0755813953488372</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62">
         <v>0.2558139534883721</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
-      <c r="A63" s="2">
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63">
         <v>61</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63">
         <v>0.25</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63">
         <v>0.25</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63">
         <v>0.08333333333333333</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
-      <c r="A64" s="2">
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>62</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64">
         <v>0.1666666666666667</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64">
         <v>0.08333333333333333</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64">
         <v>0.1666666666666667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
-      <c r="A65" s="2">
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65">
         <v>63</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65">
         <v>0.8333333333333334</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
-      <c r="A66" s="2">
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>64</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66">
         <v>0.9888372093023255</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66">
         <v>0.9906976744186047</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66">
         <v>0.9916279069767442</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66">
         <v>0.9916279069767442</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
-      <c r="A67" s="2">
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67">
         <v>65</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67">
         <v>0.4285714285714285</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67">
         <v>0.5714285714285714</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67">
         <v>0.5714285714285714</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67">
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
-      <c r="A68" s="2">
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68">
         <v>66</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68">
         <v>0.881118881118881</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68">
         <v>0.951048951048951</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68">
         <v>0.9370629370629371</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68">
         <v>0.965034965034965</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
-      <c r="A69" s="2">
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69">
         <v>67</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69">
         <v>0.7710843373493976</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69">
         <v>0.8072289156626506</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69">
         <v>0.8433734939759037</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69">
         <v>0.7951807228915663</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
-      <c r="A70" s="2">
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70">
         <v>68</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70">
         <v>0.9642126789366053</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70">
         <v>0.9713701431492842</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70">
         <v>0.9744376278118609</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70">
         <v>0.9703476482617587</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
-      <c r="A71" s="2">
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71">
         <v>69</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71">
         <v>0.7857142857142857</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71">
         <v>0.7857142857142857</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71">
         <v>0.6428571428571429</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71">
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
-      <c r="A72" s="2">
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72">
         <v>70</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72">
         <v>0.3714285714285714</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72">
         <v>0.5142857142857142</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72">
         <v>0.4571428571428571</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72">
         <v>0.4857142857142857</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
-      <c r="A73" s="2">
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73">
         <v>71</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73">
         <v>0.9414225941422594</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73">
         <v>0.9539748953974896</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73">
         <v>0.9539748953974896</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73">
         <v>0.9497907949790795</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
-      <c r="A74" s="2">
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74">
         <v>72</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74">
         <v>0.0303030303030303</v>
       </c>
-      <c r="D74" s="4">
-        <v>0</v>
-      </c>
-      <c r="E74" s="4">
-        <v>0</v>
-      </c>
-      <c r="F74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
-      <c r="A75" s="2">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75">
         <v>73</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75">
         <v>0.04347826086956522</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75">
         <v>0.04347826086956522</v>
       </c>
-      <c r="E75" s="4">
-        <v>0</v>
-      </c>
-      <c r="F75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
-      <c r="A76" s="2">
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>74</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76">
         <v>0.9711538461538461</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76">
         <v>0.9807692307692307</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76">
         <v>0.9903846153846154</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76">
         <v>0.9807692307692307</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
-      <c r="A77" s="2">
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77">
         <v>75</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77">
         <v>0.8666666666666667</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77">
         <v>0.9333333333333333</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77">
         <v>0.9333333333333333</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77">
         <v>0.9333333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
-      <c r="A78" s="2">
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78">
         <v>76</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78">
         <v>0.2222222222222222</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78">
         <v>0.2222222222222222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
-      <c r="A79" s="2">
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79">
         <v>77</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79">
         <v>0.8666666666666667</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79">
         <v>0.8666666666666667</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79">
         <v>0.8666666666666667</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79">
         <v>0.9333333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
-      <c r="A80" s="2">
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80">
         <v>78</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80">
         <v>0.15</v>
       </c>
-      <c r="D80" s="4">
-        <v>0</v>
-      </c>
-      <c r="E80" s="4">
-        <v>0</v>
-      </c>
-      <c r="F80" s="5">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
         <v>0.06666666666666667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
-      <c r="A81" s="2">
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81">
         <v>79</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81">
         <v>0.7120418848167539</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81">
         <v>0.7539267015706806</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81">
         <v>0.8167539267015707</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81">
         <v>0.7591623036649215</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
-      <c r="A82" s="2">
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82">
         <v>80</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82">
         <v>0.5118110236220472</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82">
         <v>0.7795275590551181</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82">
         <v>0.7480314960629921</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82">
         <v>0.7637795275590551</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
-      <c r="A83" s="2">
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83">
         <v>81</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83">
         <v>0.1666666666666667</v>
       </c>
-      <c r="D83" s="4">
-        <v>0</v>
-      </c>
-      <c r="E83" s="5">
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
         <v>0.1111111111111111</v>
       </c>
-      <c r="F83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
-      <c r="A84" s="2">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84">
         <v>82</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84">
         <v>0.09090909090909091</v>
       </c>
-      <c r="D84" s="4">
-        <v>0</v>
-      </c>
-      <c r="E84" s="4">
-        <v>0</v>
-      </c>
-      <c r="F84" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
-      <c r="A85" s="2">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85">
         <v>83</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85">
         <v>0.9666666666666667</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85">
         <v>0.975</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85">
         <v>0.975</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85">
         <v>0.9666666666666667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
-      <c r="A86" s="2">
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86">
         <v>84</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86">
         <v>0.5163043478260869</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86">
         <v>0.6195652173913043</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86">
         <v>0.6195652173913043</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86">
         <v>0.5706521739130435</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
-      <c r="A87" s="2">
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87">
         <v>85</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87">
         <v>0.6858638743455497</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87">
         <v>0.7722513089005235</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87">
         <v>0.7827225130890052</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87">
         <v>0.7931937172774869</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
-      <c r="A88" s="2">
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88">
         <v>86</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88">
         <v>0.05555555555555555</v>
       </c>
-      <c r="D88" s="4">
-        <v>0</v>
-      </c>
-      <c r="E88" s="4">
-        <v>0</v>
-      </c>
-      <c r="F88" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
-      <c r="A89" s="2">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89">
         <v>87</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89">
         <v>0.3858267716535433</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89">
         <v>0.3543307086614173</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89">
         <v>0.3858267716535433</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89">
         <v>0.3779527559055118</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
-      <c r="A90" s="2">
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90">
         <v>88</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90">
         <v>0.1428571428571428</v>
       </c>
-      <c r="D90" s="4">
-        <v>0</v>
-      </c>
-      <c r="E90" s="4">
-        <v>0</v>
-      </c>
-      <c r="F90" s="5">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
         <v>0.03296703296703297</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
-      <c r="A91" s="2">
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91">
         <v>89</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91">
         <v>0.6666666666666666</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91">
         <v>0.6666666666666666</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
-      <c r="A92" s="2">
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92">
         <v>90</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92">
         <v>0.3333333333333333</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92">
         <v>1</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
-      <c r="A93" s="2">
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93">
         <v>91</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93">
         <v>0.2818294190358467</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93">
         <v>0.5871446229913473</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93">
         <v>0.2978986402966625</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93">
         <v>0.3559950556242275</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
-      <c r="A94" s="2">
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94">
         <v>92</v>
       </c>
-      <c r="C94" s="4">
-        <v>0</v>
-      </c>
-      <c r="D94" s="4">
-        <v>0</v>
-      </c>
-      <c r="E94" s="4">
-        <v>0</v>
-      </c>
-      <c r="F94" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
-      <c r="A95" s="2">
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95">
         <v>93</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95">
         <v>0.9384615384615385</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95">
         <v>0.9076923076923076</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95">
         <v>0.9384615384615385</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95">
         <v>0.9384615384615385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
-      <c r="A96" s="2">
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96">
         <v>94</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96">
         <v>0.3497267759562842</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96">
         <v>0.6229508196721312</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96">
         <v>0.8579234972677595</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96">
         <v>0.6994535519125683</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
-      <c r="A97" s="2">
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97">
         <v>95</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97">
         <v>0.8000000000000002</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97">
         <v>0.8000000000000002</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97">
         <v>0.8000000000000002</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97">
         <v>0.8000000000000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
-      <c r="A98" s="2">
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98">
         <v>96</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98">
         <v>0.5277777777777778</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98">
         <v>0.5277777777777778</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98">
         <v>0.5</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98">
         <v>0.4861111111111111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
-      <c r="A99" s="2">
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99">
         <v>97</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99">
         <v>0.2666666666666667</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99">
         <v>0.2</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99">
         <v>0.2666666666666667</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99">
         <v>0.06666666666666667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
-      <c r="A100" s="2">
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100">
         <v>98</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100">
         <v>0.2313432835820896</v>
       </c>
-      <c r="D100" s="4">
-        <v>0</v>
-      </c>
-      <c r="E100" s="5">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
         <v>0.007462686567164179</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100">
         <v>0.01492537313432836</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
-      <c r="A101" s="2">
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101">
         <v>99</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101">
         <v>0.9565217391304348</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101">
         <v>0.9565217391304348</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101">
         <v>0.9130434782608695</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F101">
         <v>0.9565217391304348</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
-      <c r="A102" s="2">
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102">
         <v>100</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102">
         <v>0.8823529411764706</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102">
         <v>0.9411764705882353</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102">
         <v>0.8823529411764706</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102">
         <v>0.9411764705882353</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
-      <c r="A103" s="2">
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103">
         <v>101</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103">
         <v>0.7777777777777778</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103">
         <v>0.7777777777777778</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103">
         <v>0.7777777777777778</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103">
         <v>0.7777777777777778</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
-      <c r="A104" s="2">
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104">
         <v>102</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104">
         <v>1</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104">
         <v>1</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104">
         <v>1</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
-      <c r="A105" s="2">
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105">
         <v>103</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105">
         <v>1</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105">
         <v>1</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105">
         <v>1</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
-      <c r="A106" s="2">
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106">
         <v>104</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106">
         <v>0.8043478260869565</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106">
         <v>0.8478260869565218</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106">
         <v>0.8260869565217391</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F106">
         <v>0.8260869565217391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
-      <c r="A107" s="2">
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107">
         <v>105</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107">
         <v>0.6861924686192469</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107">
         <v>0.6652719665271967</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107">
         <v>0.6778242677824268</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F107">
         <v>0.6778242677824268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
-      <c r="A108" s="2">
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108">
         <v>106</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108">
         <v>0.5</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108">
         <v>0.61</v>
       </c>
-      <c r="E108" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="F108" s="5">
+      <c r="E108">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F108">
         <v>0.54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
-      <c r="A109" s="2">
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109">
         <v>107</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109">
         <v>0.25</v>
       </c>
-      <c r="D109" s="4">
-        <v>0</v>
-      </c>
-      <c r="E109" s="4">
-        <v>0</v>
-      </c>
-      <c r="F109" s="5">
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
         <v>0.0625</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
-      <c r="A110" s="2">
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110">
         <v>108</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110">
         <v>0.9955489614243324</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110">
         <v>0.9851632047477745</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110">
         <v>0.9970326409495549</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110">
         <v>0.9970326409495549</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
-      <c r="A111" s="2">
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111">
         <v>109</v>
       </c>
-      <c r="C111" s="4">
-        <v>0</v>
-      </c>
-      <c r="D111" s="4">
-        <v>0</v>
-      </c>
-      <c r="E111" s="4">
-        <v>0</v>
-      </c>
-      <c r="F111" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
-      <c r="A112" s="2">
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112">
         <v>110</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112">
         <v>0.8584905660377359</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112">
         <v>0.9056603773584906</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112">
         <v>0.9339622641509434</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112">
         <v>0.9056603773584906</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
-      <c r="A113" s="2">
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113">
         <v>111</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113">
         <v>0.08333333333333333</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E113" s="4">
-        <v>0</v>
-      </c>
-      <c r="F113" s="5">
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
         <v>0.08333333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
-      <c r="A114" s="2">
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114">
         <v>112</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114">
         <v>0.6439628482972136</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114">
         <v>0.8297213622291022</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114">
         <v>0.8173374613003096</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114">
         <v>0.7801857585139319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
-      <c r="A115" s="2">
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115">
         <v>113</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115">
         <v>0.875</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115">
         <v>0.875</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115">
         <v>0.875</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F115">
         <v>0.875</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
-      <c r="A116" s="2">
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116">
         <v>114</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116">
         <v>0.07407407407407407</v>
       </c>
-      <c r="D116" s="4">
-        <v>0</v>
-      </c>
-      <c r="E116" s="4">
-        <v>0</v>
-      </c>
-      <c r="F116" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
-      <c r="A117" s="2">
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117">
         <v>115</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117">
         <v>0.8897876643073811</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117">
         <v>0.9352881698685541</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117">
         <v>0.9261880687563196</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F117">
         <v>0.923154701718908</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
-      <c r="A118" s="2">
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118">
         <v>116</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118">
         <v>0.25</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118">
         <v>0.25</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118">
         <v>0.25</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118">
         <v>0.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
-      <c r="A119" s="2">
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119">
         <v>117</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119">
         <v>0.4151291512915129</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119">
         <v>0.08856088560885608</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119">
         <v>0.0996309963099631</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119">
         <v>0.1014760147601476</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
-      <c r="A120" s="2">
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120">
         <v>118</v>
       </c>
-      <c r="C120" s="4">
-        <v>0</v>
-      </c>
-      <c r="D120" s="4">
-        <v>0</v>
-      </c>
-      <c r="E120" s="4">
-        <v>0</v>
-      </c>
-      <c r="F120" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
-      <c r="A121" s="2">
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121">
         <v>119</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121">
         <v>0.8529411764705882</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121">
         <v>0.8725490196078431</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121">
         <v>0.9019607843137255</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F121">
         <v>0.8823529411764706</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
-      <c r="A122" s="2">
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122">
         <v>120</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122">
         <v>0.9467213114754098</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122">
         <v>0.9877049180327869</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122">
         <v>0.9836065573770492</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122">
         <v>0.9672131147540983</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
-      <c r="A123" s="2">
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123">
         <v>121</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123">
         <v>0.9459459459459459</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123">
         <v>0.9459459459459459</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123">
         <v>0.918918918918919</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123">
         <v>0.9459459459459459</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
-      <c r="A124" s="2">
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124">
         <v>122</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124">
         <v>0.2949245541838135</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124">
         <v>0.262002743484225</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124">
         <v>0.2812071330589849</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124">
         <v>0.3168724279835391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
-      <c r="A125" s="2">
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125">
         <v>123</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125">
         <v>0.3333333333333333</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125">
         <v>0.2777777777777778</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125">
         <v>0.3888888888888889</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F125">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
-      <c r="A126" s="2">
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126">
         <v>124</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126">
         <v>0.125</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126">
         <v>0.0625</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126">
         <v>0.25</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126">
         <v>0.125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
-      <c r="A127" s="2">
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127">
         <v>125</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127">
         <v>0.5</v>
       </c>
-      <c r="D127" s="4">
-        <v>0</v>
-      </c>
-      <c r="E127" s="4">
-        <v>0</v>
-      </c>
-      <c r="F127" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
-      <c r="A128" s="2">
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128">
         <v>126</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128">
         <v>0.6992125984251969</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128">
         <v>0.6267716535433071</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128">
         <v>0.6425196850393701</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128">
         <v>0.6346456692913386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
-      <c r="A129" s="2">
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129">
         <v>127</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129">
         <v>0.8094321462945139</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129">
         <v>0.8912415784408084</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129">
         <v>0.8820981713185756</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129">
         <v>0.8820981713185756</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
-      <c r="A130" s="2">
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130">
         <v>128</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130">
         <v>0.546875</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130">
         <v>0.75</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130">
         <v>0.765625</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130">
         <v>0.609375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
-      <c r="A131" s="2">
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131">
         <v>129</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131">
         <v>0.1578947368421053</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131">
         <v>0.2473684210526316</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E131">
         <v>0.5263157894736842</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F131">
         <v>0.475438596491228</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
-      <c r="A132" s="2">
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132">
         <v>130</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132">
         <v>0.841</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132">
         <v>0.916</v>
       </c>
-      <c r="E132" s="5">
-        <v>0.935</v>
-      </c>
-      <c r="F132" s="5">
+      <c r="E132">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F132">
         <v>0.92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
-      <c r="A133" s="2">
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133">
         <v>131</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133">
         <v>0.8347826086956521</v>
       </c>
-      <c r="D133" s="5">
-        <v>0.791304347826087</v>
-      </c>
-      <c r="E133" s="5">
+      <c r="D133">
+        <v>0.7913043478260871</v>
+      </c>
+      <c r="E133">
         <v>0.8521739130434782</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F133">
         <v>0.8695652173913043</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
-      <c r="A134" s="2">
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134">
         <v>132</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134">
         <v>0.5324324324324324</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134">
         <v>0.6702702702702703</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134">
         <v>0.7054054054054054</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134">
         <v>0.7189189189189189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
-      <c r="A135" s="2">
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135">
         <v>133</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135">
         <v>0.325</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135">
         <v>0.45</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135">
         <v>0.475</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F135">
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
-      <c r="A136" s="2">
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136">
         <v>134</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136">
         <v>0.9378995433789954</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136">
         <v>0.9662100456621004</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E136">
         <v>0.9616438356164384</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F136">
         <v>0.9634703196347032</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18">
-      <c r="A137" s="2">
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137">
         <v>135</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137">
         <v>0.648</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137">
         <v>0.68</v>
       </c>
-      <c r="E137" s="5">
+      <c r="E137">
         <v>0.696</v>
       </c>
-      <c r="F137" s="5">
+      <c r="F137">
         <v>0.704</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
-      <c r="A138" s="2">
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138">
         <v>136</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138">
         <v>0.8856079404466501</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138">
         <v>0.9414392059553349</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138">
         <v>0.9424317617866005</v>
       </c>
-      <c r="F138" s="5">
+      <c r="F138">
         <v>0.9419354838709677</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
-      <c r="A139" s="2">
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139">
         <v>137</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139">
         <v>0.9517906336088154</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139">
         <v>0.9807162534435262</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E139">
         <v>0.9696969696969697</v>
       </c>
-      <c r="F139" s="5">
+      <c r="F139">
         <v>0.9683195592286501</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
-      <c r="A140" s="2">
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140">
         <v>138</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140">
         <v>0.6833333333333333</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140">
         <v>0.8000000000000002</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140">
         <v>0.75</v>
       </c>
-      <c r="F140" s="5">
+      <c r="F140">
         <v>0.7833333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
-      <c r="A141" s="2">
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141">
         <v>139</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141">
         <v>0.6451612903225806</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141">
         <v>0.8064516129032258</v>
       </c>
-      <c r="E141" s="5">
+      <c r="E141">
         <v>0.8064516129032258</v>
       </c>
-      <c r="F141" s="5">
+      <c r="F141">
         <v>0.8064516129032258</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
-      <c r="A142" s="2">
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142">
         <v>140</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142">
         <v>0.864406779661017</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142">
         <v>0.8305084745762712</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E142">
         <v>0.8305084745762712</v>
       </c>
-      <c r="F142" s="5">
+      <c r="F142">
         <v>0.847457627118644</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
-      <c r="A143" s="2">
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143">
         <v>141</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143">
         <v>0.75</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143">
         <v>0.85</v>
       </c>
-      <c r="E143" s="5">
+      <c r="E143">
         <v>0.775</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F143">
         <v>0.825</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
-      <c r="A144" s="2">
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144">
         <v>142</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144">
         <v>0.55</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144">
         <v>0.65</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E144">
         <v>0.6</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F144">
         <v>0.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
-      <c r="A145" s="2">
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145">
         <v>143</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145">
         <v>0.9966555183946488</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145">
         <v>1</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145">
         <v>1</v>
       </c>
-      <c r="F145" s="4">
+      <c r="F145">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
-      <c r="A146" s="2">
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146">
         <v>144</v>
       </c>
-      <c r="C146" s="4">
-        <v>0</v>
-      </c>
-      <c r="D146" s="4">
-        <v>0</v>
-      </c>
-      <c r="E146" s="4">
-        <v>0</v>
-      </c>
-      <c r="F146" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
-      <c r="A147" s="2">
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147">
         <v>145</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147">
         <v>0.4230769230769231</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147">
         <v>0.2692307692307692</v>
       </c>
-      <c r="E147" s="5">
+      <c r="E147">
         <v>0.2692307692307692</v>
       </c>
-      <c r="F147" s="5">
+      <c r="F147">
         <v>0.2692307692307692</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
-      <c r="A148" s="2">
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148">
         <v>146</v>
       </c>
-      <c r="C148" s="4">
-        <v>0</v>
-      </c>
-      <c r="D148" s="4">
-        <v>0</v>
-      </c>
-      <c r="E148" s="4">
-        <v>0</v>
-      </c>
-      <c r="F148" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
-      <c r="A149" s="2">
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149">
         <v>147</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149">
         <v>0.9839668994052236</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149">
         <v>0.9945694336695112</v>
       </c>
-      <c r="E149" s="5">
+      <c r="E149">
         <v>0.9925006464959917</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F149">
         <v>0.9943108352728213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
-      <c r="A150" s="2">
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150">
         <v>148</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150">
         <v>0.9347826086956522</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150">
         <v>0.9782608695652174</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150">
         <v>1</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F150">
         <v>0.9891304347826086</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
-      <c r="A151" s="2">
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151">
         <v>149</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151">
         <v>0.5625</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151">
         <v>0.5</v>
       </c>
-      <c r="E151" s="5">
+      <c r="E151">
         <v>0.3125</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F151">
         <v>0.5625</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
-      <c r="A152" s="2">
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152">
         <v>150</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152">
         <v>0.9117647058823528</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152">
         <v>0.9411764705882353</v>
       </c>
-      <c r="E152" s="5">
+      <c r="E152">
         <v>0.9558823529411765</v>
       </c>
-      <c r="F152" s="5">
+      <c r="F152">
         <v>0.9558823529411765</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
-      <c r="A153" s="2">
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153">
         <v>151</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153">
         <v>0.9285714285714286</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153">
         <v>0.5714285714285714</v>
       </c>
-      <c r="E153" s="5">
+      <c r="E153">
         <v>0.5714285714285714</v>
       </c>
-      <c r="F153" s="5">
+      <c r="F153">
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
-      <c r="A154" s="2">
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154">
         <v>152</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154">
         <v>0.6666666666666666</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154">
         <v>0.5555555555555556</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E154">
         <v>0.2222222222222222</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F154">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
-      <c r="A155" s="2">
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155">
         <v>153</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155">
         <v>0.7959183673469388</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155">
         <v>0.8290816326530612</v>
       </c>
-      <c r="E155" s="5">
+      <c r="E155">
         <v>0.8392857142857143</v>
       </c>
-      <c r="F155" s="5">
+      <c r="F155">
         <v>0.8341836734693878</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
-      <c r="A156" s="2">
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156">
         <v>154</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156">
         <v>0.4583333333333333</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156">
         <v>0.6666666666666666</v>
       </c>
-      <c r="E156" s="5">
+      <c r="E156">
         <v>0.7083333333333334</v>
       </c>
-      <c r="F156" s="5">
+      <c r="F156">
         <v>0.625</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
-      <c r="A157" s="2">
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157">
         <v>155</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157">
         <v>1</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157">
         <v>1</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157">
         <v>1</v>
       </c>
-      <c r="F157" s="4">
+      <c r="F157">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
-      <c r="A158" s="2">
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158">
         <v>156</v>
       </c>
-      <c r="C158" s="5">
+      <c r="C158">
         <v>0.2592592592592592</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158">
         <v>0.1005291005291005</v>
       </c>
-      <c r="E158" s="5">
+      <c r="E158">
         <v>0.04761904761904762</v>
       </c>
-      <c r="F158" s="5">
+      <c r="F158">
         <v>0.1375661375661376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
-      <c r="A159" s="2">
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159">
         <v>157</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C159">
         <v>0.25</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159">
         <v>0.375</v>
       </c>
-      <c r="E159" s="5">
+      <c r="E159">
         <v>0.4166666666666667</v>
       </c>
-      <c r="F159" s="5">
+      <c r="F159">
         <v>0.375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
-      <c r="A160" s="2">
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160">
         <v>158</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C160">
         <v>0.425531914893617</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160">
         <v>0.2765957446808511</v>
       </c>
-      <c r="E160" s="5">
+      <c r="E160">
         <v>0.2127659574468085</v>
       </c>
-      <c r="F160" s="5">
+      <c r="F160">
         <v>0.2978723404255319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
-      <c r="A161" s="2">
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161">
         <v>159</v>
       </c>
-      <c r="C161" s="5">
+      <c r="C161">
         <v>0.3333333333333333</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161">
         <v>0.5416666666666666</v>
       </c>
-      <c r="E161" s="5">
+      <c r="E161">
         <v>0.5</v>
       </c>
-      <c r="F161" s="5">
+      <c r="F161">
         <v>0.5416666666666666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
-      <c r="A162" s="2">
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162">
         <v>160</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C162">
         <v>0.8799283154121865</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162">
         <v>0.8727598566308243</v>
       </c>
-      <c r="E162" s="5">
+      <c r="E162">
         <v>0.899641577060932</v>
       </c>
-      <c r="F162" s="5">
+      <c r="F162">
         <v>0.8906810035842294</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
-      <c r="A163" s="2">
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163">
         <v>161</v>
       </c>
-      <c r="C163" s="5">
+      <c r="C163">
         <v>0.8780487804878049</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163">
         <v>0.9121951219512195</v>
       </c>
-      <c r="E163" s="5">
+      <c r="E163">
         <v>0.8878048780487805</v>
       </c>
-      <c r="F163" s="5">
+      <c r="F163">
         <v>0.8926829268292683</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
-      <c r="A164" s="2">
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164">
         <v>162</v>
       </c>
-      <c r="C164" s="5">
+      <c r="C164">
         <v>0.6428571428571429</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164">
         <v>0.1285714285714286</v>
       </c>
-      <c r="E164" s="4">
-        <v>0</v>
-      </c>
-      <c r="F164" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
-      <c r="A165" s="2">
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165">
         <v>163</v>
       </c>
-      <c r="C165" s="5">
+      <c r="C165">
         <v>0.6078431372549019</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165">
         <v>0.7058823529411765</v>
       </c>
-      <c r="E165" s="5">
+      <c r="E165">
         <v>0.6274509803921569</v>
       </c>
-      <c r="F165" s="5">
+      <c r="F165">
         <v>0.6274509803921569</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
-      <c r="A166" s="2">
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166">
         <v>164</v>
       </c>
-      <c r="C166" s="5">
+      <c r="C166">
         <v>0.8440860215053764</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166">
         <v>0.8870967741935484</v>
       </c>
-      <c r="E166" s="5">
+      <c r="E166">
         <v>0.8817204301075269</v>
       </c>
-      <c r="F166" s="5">
+      <c r="F166">
         <v>0.8709677419354839</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
-      <c r="A167" s="2">
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167">
         <v>165</v>
       </c>
-      <c r="C167" s="5">
+      <c r="C167">
         <v>0.0851063829787234</v>
       </c>
-      <c r="D167" s="4">
-        <v>0</v>
-      </c>
-      <c r="E167" s="4">
-        <v>0</v>
-      </c>
-      <c r="F167" s="5">
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
         <v>0.06382978723404255</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
-      <c r="A168" s="2">
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168">
         <v>166</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168">
         <v>0.6274509803921569</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168">
         <v>0.6666666666666666</v>
       </c>
-      <c r="E168" s="5">
+      <c r="E168">
         <v>0.7254901960784313</v>
       </c>
-      <c r="F168" s="5">
+      <c r="F168">
         <v>0.7254901960784313</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
-      <c r="A169" s="2">
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169">
         <v>167</v>
       </c>
-      <c r="C169" s="5">
+      <c r="C169">
         <v>0.4505327245053272</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169">
         <v>0.2191780821917808</v>
       </c>
-      <c r="E169" s="5">
+      <c r="E169">
         <v>0.4916286149162861</v>
       </c>
-      <c r="F169" s="5">
+      <c r="F169">
         <v>0.3318112633181126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
-      <c r="A170" s="2">
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170">
         <v>168</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170">
         <v>0.1875</v>
       </c>
-      <c r="D170" s="4">
-        <v>0</v>
-      </c>
-      <c r="E170" s="4">
-        <v>0</v>
-      </c>
-      <c r="F170" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
-      <c r="A171" s="2">
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171">
         <v>169</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C171">
         <v>0.7948717948717948</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171">
         <v>0.8461538461538461</v>
       </c>
-      <c r="E171" s="5">
+      <c r="E171">
         <v>0.8205128205128205</v>
       </c>
-      <c r="F171" s="5">
+      <c r="F171">
         <v>0.8717948717948718</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
-      <c r="A172" s="2">
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172">
         <v>170</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C172">
         <v>0.9466666666666667</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172">
         <v>0.96</v>
       </c>
-      <c r="E172" s="5">
+      <c r="E172">
         <v>0.9511111111111111</v>
       </c>
-      <c r="F172" s="5">
+      <c r="F172">
         <v>0.9666666666666667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
-      <c r="A173" s="2">
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173">
         <v>171</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C173">
         <v>0.8927536231884058</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173">
         <v>0.9130434782608695</v>
       </c>
-      <c r="E173" s="5">
+      <c r="E173">
         <v>0.9217391304347826</v>
       </c>
-      <c r="F173" s="5">
+      <c r="F173">
         <v>0.927536231884058</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
-      <c r="A174" s="2">
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174">
         <v>172</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174">
         <v>0.8686006825938567</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174">
         <v>0.9931740614334471</v>
       </c>
-      <c r="E174" s="5">
+      <c r="E174">
         <v>0.9931740614334471</v>
       </c>
-      <c r="F174" s="5">
+      <c r="F174">
         <v>0.984641638225256</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18">
-      <c r="A175" s="2">
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175">
         <v>173</v>
       </c>
-      <c r="C175" s="5">
+      <c r="C175">
         <v>0.9885057471264368</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D175">
         <v>0.9870689655172413</v>
       </c>
-      <c r="E175" s="5">
+      <c r="E175">
         <v>0.9913793103448276</v>
       </c>
-      <c r="F175" s="5">
+      <c r="F175">
         <v>0.9913793103448276</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
-      <c r="A176" s="2">
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176">
         <v>174</v>
       </c>
-      <c r="C176" s="5">
+      <c r="C176">
         <v>0.9793459552495697</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176">
         <v>0.9879518072289156</v>
       </c>
-      <c r="E176" s="5">
+      <c r="E176">
         <v>0.9862306368330465</v>
       </c>
-      <c r="F176" s="5">
+      <c r="F176">
         <v>0.9879518072289156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
-      <c r="A177" s="2">
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177">
         <v>175</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C177">
         <v>0.6983805668016194</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D177">
         <v>0.7955465587044535</v>
       </c>
-      <c r="E177" s="5">
+      <c r="E177">
         <v>0.7550607287449391</v>
       </c>
-      <c r="F177" s="5">
+      <c r="F177">
         <v>0.7550607287449391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
-      <c r="A178" s="2">
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178">
         <v>176</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178">
         <v>0.4324324324324325</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D178">
         <v>0.4594594594594595</v>
       </c>
-      <c r="E178" s="5">
+      <c r="E178">
         <v>0.5675675675675675</v>
       </c>
-      <c r="F178" s="5">
+      <c r="F178">
         <v>0.6216216216216216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
-      <c r="A179" s="2">
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179">
         <v>177</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179">
         <v>0.9602272727272727</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D179">
         <v>0.9727272727272728</v>
       </c>
-      <c r="E179" s="5">
+      <c r="E179">
         <v>0.9784090909090909</v>
       </c>
-      <c r="F179" s="5">
+      <c r="F179">
         <v>0.9727272727272728</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
-      <c r="A180" s="2">
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180">
         <v>178</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C180">
         <v>0.7777777777777778</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D180">
         <v>0.7777777777777778</v>
       </c>
-      <c r="E180" s="5">
+      <c r="E180">
         <v>0.7222222222222222</v>
       </c>
-      <c r="F180" s="5">
+      <c r="F180">
         <v>0.7222222222222222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
-      <c r="A181" s="2">
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181">
         <v>179</v>
       </c>
-      <c r="C181" s="5">
+      <c r="C181">
         <v>0.5135135135135135</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D181">
         <v>0.5675675675675675</v>
       </c>
-      <c r="E181" s="5">
+      <c r="E181">
         <v>0.7297297297297297</v>
       </c>
-      <c r="F181" s="5">
+      <c r="F181">
         <v>0.6756756756756757</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
-      <c r="A182" s="2">
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182">
         <v>180</v>
       </c>
-      <c r="C182" s="4">
-        <v>0</v>
-      </c>
-      <c r="D182" s="4">
-        <v>0</v>
-      </c>
-      <c r="E182" s="4">
-        <v>0</v>
-      </c>
-      <c r="F182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
-      <c r="A183" s="2">
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183">
         <v>181</v>
       </c>
-      <c r="C183" s="5">
+      <c r="C183">
         <v>0.8333333333333334</v>
       </c>
-      <c r="D183" s="5">
+      <c r="D183">
         <v>0.8541666666666666</v>
       </c>
-      <c r="E183" s="5">
+      <c r="E183">
         <v>0.8541666666666666</v>
       </c>
-      <c r="F183" s="5">
+      <c r="F183">
         <v>0.8958333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
-      <c r="A184" s="2">
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184">
         <v>182</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C184">
         <v>0.5454545454545454</v>
       </c>
-      <c r="D184" s="4">
-        <v>0</v>
-      </c>
-      <c r="E184" s="5">
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
         <v>0.3636363636363636</v>
       </c>
-      <c r="F184" s="5">
+      <c r="F184">
         <v>0.3636363636363636</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18">
-      <c r="A185" s="2">
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185">
         <v>183</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C185">
         <v>0.75</v>
       </c>
-      <c r="D185" s="5">
+      <c r="D185">
         <v>0.8333333333333334</v>
       </c>
-      <c r="E185" s="5">
+      <c r="E185">
         <v>0.9583333333333334</v>
       </c>
-      <c r="F185" s="5">
+      <c r="F185">
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
-      <c r="A186" s="2">
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186">
         <v>184</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186">
         <v>0.8235294117647058</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186">
         <v>0.8235294117647058</v>
       </c>
-      <c r="E186" s="5">
+      <c r="E186">
         <v>0.8431372549019607</v>
       </c>
-      <c r="F186" s="5">
+      <c r="F186">
         <v>0.8039215686274509</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
-      <c r="A187" s="2">
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187">
         <v>185</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C187">
         <v>0.6179775280898876</v>
       </c>
-      <c r="D187" s="5">
+      <c r="D187">
         <v>0.8876404494382022</v>
       </c>
-      <c r="E187" s="4">
+      <c r="E187">
         <v>1</v>
       </c>
-      <c r="F187" s="4">
+      <c r="F187">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
-      <c r="A188" s="2">
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188">
         <v>186</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188">
         <v>0.8214285714285714</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D188">
         <v>0.8928571428571429</v>
       </c>
-      <c r="E188" s="5">
+      <c r="E188">
         <v>0.8571428571428571</v>
       </c>
-      <c r="F188" s="5">
+      <c r="F188">
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
-      <c r="A189" s="2">
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189">
         <v>187</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189">
         <v>0.7916666666666666</v>
       </c>
-      <c r="D189" s="5">
+      <c r="D189">
         <v>0.9583333333333334</v>
       </c>
-      <c r="E189" s="5">
+      <c r="E189">
         <v>0.9583333333333334</v>
       </c>
-      <c r="F189" s="5">
+      <c r="F189">
         <v>0.9583333333333334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
-      <c r="A190" s="2">
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190">
         <v>188</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190">
         <v>0.8399999999999999</v>
       </c>
-      <c r="D190" s="5">
+      <c r="D190">
         <v>0.88</v>
       </c>
-      <c r="E190" s="5">
+      <c r="E190">
         <v>0.96</v>
       </c>
-      <c r="F190" s="5">
+      <c r="F190">
         <v>0.88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
-      <c r="A191" s="2">
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191">
         <v>189</v>
       </c>
-      <c r="C191" s="5">
+      <c r="C191">
         <v>0.275</v>
       </c>
-      <c r="D191" s="5">
+      <c r="D191">
         <v>0.225</v>
       </c>
-      <c r="E191" s="5">
+      <c r="E191">
         <v>0.2875</v>
       </c>
-      <c r="F191" s="5">
+      <c r="F191">
         <v>0.275</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
-      <c r="A192" s="2">
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192">
         <v>190</v>
       </c>
-      <c r="C192" s="5">
+      <c r="C192">
         <v>0.5783132530120482</v>
       </c>
-      <c r="D192" s="5">
+      <c r="D192">
         <v>0.819277108433735</v>
       </c>
-      <c r="E192" s="5">
+      <c r="E192">
         <v>0.8102409638554217</v>
       </c>
-      <c r="F192" s="5">
+      <c r="F192">
         <v>0.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
-      <c r="A193" s="2">
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193">
         <v>191</v>
       </c>
-      <c r="C193" s="5">
+      <c r="C193">
         <v>0.4298245614035088</v>
       </c>
-      <c r="D193" s="5">
+      <c r="D193">
         <v>0.6403508771929824</v>
       </c>
-      <c r="E193" s="5">
+      <c r="E193">
         <v>0.5789473684210527</v>
       </c>
-      <c r="F193" s="5">
+      <c r="F193">
         <v>0.5789473684210527</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18">
-      <c r="A194" s="2">
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194">
         <v>192</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C194">
         <v>0.3389830508474576</v>
       </c>
-      <c r="D194" s="5">
+      <c r="D194">
         <v>0.2372881355932203</v>
       </c>
-      <c r="E194" s="5">
+      <c r="E194">
         <v>0.2372881355932203</v>
       </c>
-      <c r="F194" s="5">
+      <c r="F194">
         <v>0.3559322033898305</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18">
-      <c r="A195" s="2">
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195">
         <v>193</v>
       </c>
-      <c r="C195" s="5">
+      <c r="C195">
         <v>0.0983606557377049</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D195">
         <v>0.0983606557377049</v>
       </c>
-      <c r="E195" s="4">
-        <v>0</v>
-      </c>
-      <c r="F195" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18">
-      <c r="A196" s="2">
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196">
         <v>194</v>
       </c>
-      <c r="C196" s="5">
+      <c r="C196">
         <v>0.59375</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196">
         <v>0.5625</v>
       </c>
-      <c r="E196" s="5">
+      <c r="E196">
         <v>0.625</v>
       </c>
-      <c r="F196" s="5">
+      <c r="F196">
         <v>0.65625</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18">
-      <c r="A197" s="2">
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197">
         <v>195</v>
       </c>
-      <c r="C197" s="5">
+      <c r="C197">
         <v>0.805327868852459</v>
       </c>
-      <c r="D197" s="5">
+      <c r="D197">
         <v>0.8545081967213115</v>
       </c>
-      <c r="E197" s="5">
+      <c r="E197">
         <v>0.8319672131147541</v>
       </c>
-      <c r="F197" s="5">
+      <c r="F197">
         <v>0.8483606557377049</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18">
-      <c r="A198" s="2">
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198">
         <v>196</v>
       </c>
-      <c r="C198" s="5">
+      <c r="C198">
         <v>0.875</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198">
         <v>0.9166666666666666</v>
       </c>
-      <c r="E198" s="5">
+      <c r="E198">
         <v>0.9166666666666666</v>
       </c>
-      <c r="F198" s="5">
+      <c r="F198">
         <v>0.875</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18">
-      <c r="A199" s="2">
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199">
         <v>197</v>
       </c>
-      <c r="C199" s="4">
+      <c r="C199">
         <v>1</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199">
         <v>0.9375</v>
       </c>
-      <c r="E199" s="4">
+      <c r="E199">
         <v>1</v>
       </c>
-      <c r="F199" s="4">
+      <c r="F199">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18">
-      <c r="A200" s="2">
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200">
         <v>198</v>
       </c>
-      <c r="C200" s="5">
+      <c r="C200">
         <v>0.625</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200">
         <v>0.5625</v>
       </c>
-      <c r="E200" s="5">
+      <c r="E200">
         <v>0.625</v>
       </c>
-      <c r="F200" s="5">
+      <c r="F200">
         <v>0.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18">
-      <c r="A201" s="2">
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201">
         <v>199</v>
       </c>
-      <c r="C201" s="5">
+      <c r="C201">
         <v>0.9322033898305084</v>
       </c>
-      <c r="D201" s="5">
+      <c r="D201">
         <v>0.9322033898305084</v>
       </c>
-      <c r="E201" s="5">
+      <c r="E201">
         <v>0.9491525423728814</v>
       </c>
-      <c r="F201" s="5">
+      <c r="F201">
         <v>0.9491525423728814</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18">
-      <c r="A202" s="2">
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202">
         <v>200</v>
       </c>
-      <c r="C202" s="5">
+      <c r="C202">
         <v>0.9263959390862944</v>
       </c>
-      <c r="D202" s="5">
+      <c r="D202">
         <v>0.9416243654822335</v>
       </c>
-      <c r="E202" s="5">
+      <c r="E202">
         <v>0.9441624365482234</v>
       </c>
-      <c r="F202" s="5">
+      <c r="F202">
         <v>0.9441624365482234</v>
       </c>
     </row>
